--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eriki\Documents\anyway_stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF352BBD-F772-4D74-A2FC-BD3F90E57995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07705D4-980F-4B3E-B37A-31AEF99FDB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="113">
   <si>
     <t>waze uuid</t>
   </si>
@@ -75,9 +75,6 @@
     <t>0f64031c-d379-433d-b942-1ea23f43f9d9</t>
   </si>
   <si>
-    <t>0f64031c-d379-433d-b942-1ea23f43f9d10</t>
-  </si>
-  <si>
     <t>74a29150-46fb-4e12-8246-a6433c9f2842</t>
   </si>
   <si>
@@ -334,9 +331,6 @@
   </si>
   <si>
     <t>2d61e01c-08ff-43ee-83e3-589fc726f674</t>
-  </si>
-  <si>
-    <t>2d61e01c-08ff-43ee-83e3-589fc726f675</t>
   </si>
   <si>
     <t>b1ae8a55-afad-43eb-80d7-8d3797aaf49e</t>
@@ -704,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P204" sqref="P204"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +969,7 @@
         <v>62663</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -983,7 +977,7 @@
         <v>62667</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +985,7 @@
         <v>62679</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,7 +993,7 @@
         <v>62692</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1007,7 +1001,7 @@
         <v>62692</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,7 +1009,7 @@
         <v>62692</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1023,7 +1017,7 @@
         <v>62692</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1031,7 +1025,7 @@
         <v>62692</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1039,7 +1033,7 @@
         <v>62694</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1047,7 +1041,7 @@
         <v>62804</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1049,7 @@
         <v>62908</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1063,7 +1057,7 @@
         <v>62916</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1071,7 +1065,7 @@
         <v>62984</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,7 +1073,7 @@
         <v>62986</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1081,7 @@
         <v>62981</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,7 +1089,7 @@
         <v>63002</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1103,7 +1097,7 @@
         <v>63000</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1105,7 @@
         <v>63002</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1119,7 +1113,7 @@
         <v>63000</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,7 +1121,7 @@
         <v>63002</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1129,7 @@
         <v>63000</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1143,7 +1137,7 @@
         <v>63026</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1151,7 +1145,7 @@
         <v>63026</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1153,7 @@
         <v>63026</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1161,7 @@
         <v>63026</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1169,7 @@
         <v>63026</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1183,7 +1177,7 @@
         <v>63053</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,7 +1185,7 @@
         <v>63217</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1199,7 +1193,7 @@
         <v>63217</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1207,7 +1201,7 @@
         <v>63217</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1209,7 @@
         <v>63217</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1223,7 +1217,7 @@
         <v>63223</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,7 +1225,7 @@
         <v>63220</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1239,7 +1233,7 @@
         <v>63224</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1247,7 +1241,7 @@
         <v>63223</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,7 +1249,7 @@
         <v>63220</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1263,7 +1257,7 @@
         <v>63224</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1271,7 +1265,7 @@
         <v>63235</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1279,7 +1273,7 @@
         <v>63230</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1287,7 +1281,7 @@
         <v>63227</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,7 +1289,7 @@
         <v>63235</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1303,7 +1297,7 @@
         <v>63230</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1311,7 +1305,7 @@
         <v>63227</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1319,7 +1313,7 @@
         <v>63235</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1327,7 +1321,7 @@
         <v>63230</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1335,7 +1329,7 @@
         <v>63227</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1343,7 +1337,7 @@
         <v>63320</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1351,7 +1345,7 @@
         <v>63342</v>
       </c>
       <c r="B80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1359,7 +1353,7 @@
         <v>63346</v>
       </c>
       <c r="B81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1367,7 +1361,7 @@
         <v>63352</v>
       </c>
       <c r="B82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1375,7 +1369,7 @@
         <v>63512</v>
       </c>
       <c r="B83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1383,7 +1377,7 @@
         <v>63512</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1391,7 +1385,7 @@
         <v>63512</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1399,7 +1393,7 @@
         <v>63512</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1407,7 +1401,7 @@
         <v>63512</v>
       </c>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1415,7 +1409,7 @@
         <v>63547</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1423,7 +1417,7 @@
         <v>63547</v>
       </c>
       <c r="B89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1431,7 +1425,7 @@
         <v>63547</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,7 +1433,7 @@
         <v>63562</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1447,7 +1441,7 @@
         <v>63559</v>
       </c>
       <c r="B92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1449,7 @@
         <v>63562</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1463,7 +1457,7 @@
         <v>63559</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1471,7 +1465,7 @@
         <v>63564</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1479,7 +1473,7 @@
         <v>63564</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1487,7 +1481,7 @@
         <v>63576</v>
       </c>
       <c r="B97" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1495,7 +1489,7 @@
         <v>63576</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1503,7 +1497,7 @@
         <v>63602</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1511,7 +1505,7 @@
         <v>63598</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1519,7 +1513,7 @@
         <v>63599</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1527,7 +1521,7 @@
         <v>63599</v>
       </c>
       <c r="B102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1535,7 +1529,7 @@
         <v>63609</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1543,7 +1537,7 @@
         <v>63667</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1551,7 +1545,7 @@
         <v>63867</v>
       </c>
       <c r="B105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1559,7 +1553,7 @@
         <v>63878</v>
       </c>
       <c r="B106" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1567,7 +1561,7 @@
         <v>63882</v>
       </c>
       <c r="B107" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,7 +1569,7 @@
         <v>63867</v>
       </c>
       <c r="B108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,7 +1577,7 @@
         <v>63878</v>
       </c>
       <c r="B109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1591,7 +1585,7 @@
         <v>63882</v>
       </c>
       <c r="B110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,7 +1593,7 @@
         <v>63912</v>
       </c>
       <c r="B111" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1607,7 +1601,7 @@
         <v>64072</v>
       </c>
       <c r="B112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1615,7 +1609,7 @@
         <v>64074</v>
       </c>
       <c r="B113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1623,7 +1617,7 @@
         <v>64087</v>
       </c>
       <c r="B114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1631,7 +1625,7 @@
         <v>64091</v>
       </c>
       <c r="B115" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1639,7 +1633,7 @@
         <v>64163</v>
       </c>
       <c r="B116" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1647,7 +1641,7 @@
         <v>64231</v>
       </c>
       <c r="B117" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1655,7 +1649,7 @@
         <v>64231</v>
       </c>
       <c r="B118" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1663,7 +1657,7 @@
         <v>64231</v>
       </c>
       <c r="B119" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1671,7 +1665,7 @@
         <v>64297</v>
       </c>
       <c r="B120" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1679,7 +1673,7 @@
         <v>64296</v>
       </c>
       <c r="B121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1687,7 +1681,7 @@
         <v>64337</v>
       </c>
       <c r="B122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1695,7 +1689,7 @@
         <v>64438</v>
       </c>
       <c r="B123" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1703,7 +1697,7 @@
         <v>64442</v>
       </c>
       <c r="B124" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1711,7 +1705,7 @@
         <v>64444</v>
       </c>
       <c r="B125" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1719,7 +1713,7 @@
         <v>64452</v>
       </c>
       <c r="B126" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1727,7 +1721,7 @@
         <v>64447</v>
       </c>
       <c r="B127" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1735,7 +1729,7 @@
         <v>64456</v>
       </c>
       <c r="B128" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,7 +1737,7 @@
         <v>64452</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1751,7 +1745,7 @@
         <v>64447</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1759,7 +1753,7 @@
         <v>64456</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1767,7 +1761,7 @@
         <v>64466</v>
       </c>
       <c r="B132" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1775,7 +1769,7 @@
         <v>64463</v>
       </c>
       <c r="B133" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1783,7 +1777,7 @@
         <v>64464</v>
       </c>
       <c r="B134" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,7 +1785,7 @@
         <v>64466</v>
       </c>
       <c r="B135" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1799,7 +1793,7 @@
         <v>64463</v>
       </c>
       <c r="B136" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1807,7 +1801,7 @@
         <v>64464</v>
       </c>
       <c r="B137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1815,7 +1809,7 @@
         <v>64520</v>
       </c>
       <c r="B138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1823,7 +1817,7 @@
         <v>64516</v>
       </c>
       <c r="B139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1831,7 +1825,7 @@
         <v>64522</v>
       </c>
       <c r="B140" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1839,7 +1833,7 @@
         <v>64524</v>
       </c>
       <c r="B141" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1847,7 +1841,7 @@
         <v>64881</v>
       </c>
       <c r="B142" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1855,7 +1849,7 @@
         <v>64880</v>
       </c>
       <c r="B143" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1863,7 +1857,7 @@
         <v>64935</v>
       </c>
       <c r="B144" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1871,7 +1865,7 @@
         <v>64935</v>
       </c>
       <c r="B145" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1879,7 +1873,7 @@
         <v>64935</v>
       </c>
       <c r="B146" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1887,7 +1881,7 @@
         <v>64935</v>
       </c>
       <c r="B147" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1895,7 +1889,7 @@
         <v>64968</v>
       </c>
       <c r="B148" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1903,7 +1897,7 @@
         <v>64969</v>
       </c>
       <c r="B149" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1911,7 +1905,7 @@
         <v>65007</v>
       </c>
       <c r="B150" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1919,7 +1913,7 @@
         <v>65008</v>
       </c>
       <c r="B151" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1927,7 +1921,7 @@
         <v>65011</v>
       </c>
       <c r="B152" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1935,7 +1929,7 @@
         <v>65013</v>
       </c>
       <c r="B153" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1943,7 +1937,7 @@
         <v>65077</v>
       </c>
       <c r="B154" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1951,7 +1945,7 @@
         <v>65072</v>
       </c>
       <c r="B155" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1959,7 +1953,7 @@
         <v>65072</v>
       </c>
       <c r="B156" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1967,7 +1961,7 @@
         <v>65072</v>
       </c>
       <c r="B157" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1975,7 +1969,7 @@
         <v>65187</v>
       </c>
       <c r="B158" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1983,7 +1977,7 @@
         <v>65191</v>
       </c>
       <c r="B159" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1991,7 +1985,7 @@
         <v>65186</v>
       </c>
       <c r="B160" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1999,7 +1993,7 @@
         <v>65189</v>
       </c>
       <c r="B161" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2007,7 +2001,7 @@
         <v>65196</v>
       </c>
       <c r="B162" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2015,7 +2009,7 @@
         <v>65194</v>
       </c>
       <c r="B163" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2023,7 +2017,7 @@
         <v>65270</v>
       </c>
       <c r="B164" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2031,7 +2025,7 @@
         <v>65270</v>
       </c>
       <c r="B165" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2039,7 +2033,7 @@
         <v>65270</v>
       </c>
       <c r="B166" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2047,7 +2041,7 @@
         <v>65270</v>
       </c>
       <c r="B167" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2055,7 +2049,7 @@
         <v>65270</v>
       </c>
       <c r="B168" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2063,7 +2057,7 @@
         <v>65270</v>
       </c>
       <c r="B169" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2071,7 +2065,7 @@
         <v>65278</v>
       </c>
       <c r="B170" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2079,7 +2073,7 @@
         <v>65278</v>
       </c>
       <c r="B171" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2087,7 +2081,7 @@
         <v>65278</v>
       </c>
       <c r="B172" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2095,7 +2089,7 @@
         <v>65278</v>
       </c>
       <c r="B173" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -2103,7 +2097,7 @@
         <v>65278</v>
       </c>
       <c r="B174" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2111,7 +2105,7 @@
         <v>65278</v>
       </c>
       <c r="B175" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -2119,7 +2113,7 @@
         <v>65219</v>
       </c>
       <c r="B176" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -2127,7 +2121,7 @@
         <v>65220</v>
       </c>
       <c r="B177" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -2135,7 +2129,7 @@
         <v>65219</v>
       </c>
       <c r="B178" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -2143,7 +2137,7 @@
         <v>65220</v>
       </c>
       <c r="B179" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -2151,7 +2145,7 @@
         <v>65268</v>
       </c>
       <c r="B180" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -2159,7 +2153,7 @@
         <v>65268</v>
       </c>
       <c r="B181" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -2167,7 +2161,7 @@
         <v>65268</v>
       </c>
       <c r="B182" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -2175,7 +2169,7 @@
         <v>65268</v>
       </c>
       <c r="B183" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -2183,7 +2177,7 @@
         <v>65268</v>
       </c>
       <c r="B184" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -2191,7 +2185,7 @@
         <v>65268</v>
       </c>
       <c r="B185" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -2199,7 +2193,7 @@
         <v>65262</v>
       </c>
       <c r="B186" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -2207,7 +2201,7 @@
         <v>65296</v>
       </c>
       <c r="B187" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -2215,7 +2209,7 @@
         <v>65301</v>
       </c>
       <c r="B188" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -2223,7 +2217,7 @@
         <v>65351</v>
       </c>
       <c r="B189" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -2231,7 +2225,7 @@
         <v>65389</v>
       </c>
       <c r="B190" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -2239,7 +2233,7 @@
         <v>65393</v>
       </c>
       <c r="B191" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -2247,7 +2241,7 @@
         <v>65395</v>
       </c>
       <c r="B192" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -2255,7 +2249,7 @@
         <v>65516</v>
       </c>
       <c r="B193" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -2263,7 +2257,7 @@
         <v>65516</v>
       </c>
       <c r="B194" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -2271,7 +2265,7 @@
         <v>65517</v>
       </c>
       <c r="B195" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -2279,7 +2273,7 @@
         <v>65517</v>
       </c>
       <c r="B196" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -2287,7 +2281,7 @@
         <v>65529</v>
       </c>
       <c r="B197" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -2295,7 +2289,7 @@
         <v>65529</v>
       </c>
       <c r="B198" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2303,7 +2297,7 @@
         <v>65530</v>
       </c>
       <c r="B199" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2311,7 +2305,7 @@
         <v>65530</v>
       </c>
       <c r="B200" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2319,7 +2313,7 @@
         <v>65546</v>
       </c>
       <c r="B201" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2327,7 +2321,7 @@
         <v>65549</v>
       </c>
       <c r="B202" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2335,7 +2329,7 @@
         <v>65553</v>
       </c>
       <c r="B203" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2343,7 +2337,7 @@
         <v>65820</v>
       </c>
       <c r="B204" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2351,7 +2345,7 @@
         <v>65839</v>
       </c>
       <c r="B205" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2359,7 +2353,7 @@
         <v>65842</v>
       </c>
       <c r="B206" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2367,7 +2361,7 @@
         <v>65886</v>
       </c>
       <c r="B207" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2375,7 +2369,7 @@
         <v>65888</v>
       </c>
       <c r="B208" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2383,7 +2377,7 @@
         <v>65886</v>
       </c>
       <c r="B209" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2391,7 +2385,7 @@
         <v>65888</v>
       </c>
       <c r="B210" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
